--- a/task01.xlsx
+++ b/task01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{EFD450E3-1C99-49F7-8AC0-26C51776A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7EBA0D6-728B-4790-AD25-346C650E86C5}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{EFD450E3-1C99-49F7-8AC0-26C51776A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{612E4422-24F6-4A04-BE83-DAB412E472C0}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="2415" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="1110" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
@@ -708,9 +708,9 @@
   </sheetPr>
   <dimension ref="A1:CE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CE1" sqref="CE1"/>
+      <selection pane="bottomLeft" activeCell="BL5" sqref="BL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/task01.xlsx
+++ b/task01.xlsx
@@ -8,409 +8,439 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{EFD450E3-1C99-49F7-8AC0-26C51776A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{612E4422-24F6-4A04-BE83-DAB412E472C0}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{EFD450E3-1C99-49F7-8AC0-26C51776A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6272A17C-FD4B-4D7F-8258-6F84ED329487}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1110" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1620" windowWidth="13410" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
+  <si>
+    <t>被験者</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>watanabe</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>shigenawa</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>maeda</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>suzuki</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tamura</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kawasaki</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kobayashi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>nomura</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ota</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>motoyama</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tamaru</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kawamura</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yashiro</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>imahashi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tabata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_puzzle1_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_puzzle1_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_puzzle2_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_puzzle2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_puzzle3_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_puzzle3_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_puzzle4_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_puzzle4_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_puzzle5_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_puzzle5_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_iraira1_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_iraira1_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_iraira2_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_iraira2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_iraira3_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_iraira3_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_iraira4_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_iraira4_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_iraira5_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>n_iraira5_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle1-1_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle1-1_first</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle1-1_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle1-2_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle1-2_first</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle1-2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle1-2_last</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle1-1_last</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle2-1_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle2-1_first</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle2-1_last</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle2-1_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle2-2_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle2-2_first</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle2-2_last</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle2-2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle3-1_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle3-1_first</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle3-1_last</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle3-1_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle3-2_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle3-2_first</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle3-2_last</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle3-2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle4-1_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle4-1_first</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle4-1_last</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle4-1_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle4-2_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle4-2_first</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle4-2_last</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle4-2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle5-1_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle5-1_first</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle5-1_last</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle5-1_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle5-2_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle5-2_first</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle5-2_last</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>puzzle5-2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira1-1_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira1-1_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira1-2_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira1-2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira2-1_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira2-1_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira2-2_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira2-2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira3-1_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira3-1_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira3-2_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira3-2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira4-1_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira4-1_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira4-2_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira4-2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira5-1_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira5-1_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira5-2_pre</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>iraira5-2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pre_ave</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>post_ave</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="2"/>
+  </si>
   <si>
     <t>タイムスタンプ</t>
-  </si>
-  <si>
-    <t>被験者</t>
-  </si>
-  <si>
-    <t>日付</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>watanabe</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>shigenawa</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>maeda</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>suzuki</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>tamura</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>kawasaki</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>kobayashi</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>nomura</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ota</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>motoyama</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>tamaru</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>kawamura</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>yashiro</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>imahashi</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>tabata</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_puzzle1_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_puzzle1_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_puzzle2_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_puzzle2_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_puzzle3_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_puzzle3_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_puzzle4_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_puzzle4_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_puzzle5_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_puzzle5_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_iraira1_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_iraira1_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_iraira2_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_iraira2_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_iraira3_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_iraira3_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_iraira4_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_iraira4_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_iraira5_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>n_iraira5_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle1-1_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle1-1_first</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle1-1_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle1-2_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle1-2_first</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle1-2_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle1-2_last</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle1-1_last</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle2-1_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle2-1_first</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle2-1_last</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle2-1_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle2-2_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle2-2_first</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle2-2_last</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle2-2_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle3-1_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle3-1_first</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle3-1_last</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle3-1_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle3-2_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle3-2_first</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle3-2_last</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle3-2_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle4-1_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle4-1_first</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle4-1_last</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle4-1_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle4-2_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle4-2_first</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle4-2_last</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle4-2_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle5-1_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle5-1_first</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle5-1_last</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle5-1_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle5-2_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle5-2_first</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle5-2_last</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>puzzle5-2_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira1-1_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira1-1_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira1-2_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira1-2_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira2-1_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira2-1_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira2-2_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira2-2_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira3-1_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira3-1_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira3-2_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira3-2_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira4-1_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira4-1_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira4-2_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira4-2_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira5-1_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira5-1_post</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira5-2_pre</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>iraira5-2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pre_sum</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -421,7 +451,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -456,6 +486,13 @@
       <name val="Arial"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -477,13 +514,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -706,275 +744,287 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CE16"/>
+  <dimension ref="A1:CJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BL5" sqref="BL5"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
+      <selection activeCell="CG19" sqref="CG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="89" width="18.85546875" customWidth="1"/>
+    <col min="1" max="90" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="Z1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AS1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="AT1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BC1" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="BD1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="BN1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="BX1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BY1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="CG1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CJ1" s="1"/>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44876.674123784724</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3">
         <v>44876</v>
@@ -1099,13 +1149,28 @@
       <c r="CE2" s="1">
         <v>40</v>
       </c>
+      <c r="CF2">
+        <f>AVERAGE(D2,F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,AB2,AF2,AJ2,AN2,AR2,AV2,AZ2,BD2,BH2,BL2,BN2,BP2,BR2,BT2,BV2,BX2,BZ2,CB2,CD2)</f>
+        <v>59</v>
+      </c>
+      <c r="CG2">
+        <f>SUM(D2,F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,AB2,AF2,AJ2,AN2,AR2,AV2,AZ2,BD2,BH2,BL2,BN2,BP2,BR2,BT2,BV2,BX2,BZ2,CB2,CD2)</f>
+        <v>1180</v>
+      </c>
+      <c r="CH2">
+        <f>AVERAGE(E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,AA2,AE2,AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BM2,BO2,BQ2,BS2,BU2,BW2,BY2,CA2,CC2,CE2)</f>
+        <v>62.75</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>54</v>
+      </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44880.707566354162</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3">
         <v>44880</v>
@@ -1350,13 +1415,28 @@
       <c r="CE3" s="1">
         <v>3</v>
       </c>
+      <c r="CF3">
+        <f t="shared" ref="CF3:CF16" si="0">AVERAGE(D3,F3,H3,J3,L3,N3,P3,R3,T3,V3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3,BH3,BL3,BN3,BP3,BR3,BT3,BV3,BX3,BZ3,CB3,CD3)</f>
+        <v>45.866666666666667</v>
+      </c>
+      <c r="CG3">
+        <f t="shared" ref="CG3:CG16" si="1">SUM(D3,F3,H3,J3,L3,N3,P3,R3,T3,V3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3,BH3,BL3,BN3,BP3,BR3,BT3,BV3,BX3,BZ3,CB3,CD3)</f>
+        <v>1376</v>
+      </c>
+      <c r="CH3">
+        <f t="shared" ref="CH3:CH16" si="2">AVERAGE(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3,AA3,AE3,AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BM3,BO3,BQ3,BS3,BU3,BW3,BY3,CA3,CC3,CE3)</f>
+        <v>41.93333333333333</v>
+      </c>
+      <c r="CI3" s="1">
+        <v>54</v>
+      </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44881.674904236112</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3">
         <v>44881</v>
@@ -1601,13 +1681,28 @@
       <c r="CE4" s="1">
         <v>40</v>
       </c>
+      <c r="CF4">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="CG4">
+        <f t="shared" si="1"/>
+        <v>1620</v>
+      </c>
+      <c r="CH4">
+        <f t="shared" si="2"/>
+        <v>52.5</v>
+      </c>
+      <c r="CI4" s="1">
+        <v>68</v>
+      </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44883.665308854164</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
         <v>44883</v>
@@ -1852,13 +1947,28 @@
       <c r="CE5" s="1">
         <v>25</v>
       </c>
+      <c r="CF5">
+        <f t="shared" si="0"/>
+        <v>59.666666666666664</v>
+      </c>
+      <c r="CG5">
+        <f t="shared" si="1"/>
+        <v>1790</v>
+      </c>
+      <c r="CH5">
+        <f>AVERAGE(E5,G5,I5,K5,M5,O5,Q5,S5,U5,W5,AA5,AE5,AI5,AM5,AQ5,AU5,AY5,BC5,BG5,BK5,BM5,BO5,BQ5,BS5,BU5,BW5,BY5,CA5,CC5,CE5)</f>
+        <v>65.666666666666671</v>
+      </c>
+      <c r="CI5" s="1">
+        <v>52</v>
+      </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44888.58370181713</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3">
         <v>44888</v>
@@ -2092,24 +2202,39 @@
         <v>25</v>
       </c>
       <c r="CB6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CC6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CD6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CE6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="CF6">
+        <f t="shared" si="0"/>
+        <v>27.142857142857142</v>
+      </c>
+      <c r="CG6">
+        <f t="shared" si="1"/>
+        <v>760</v>
+      </c>
+      <c r="CH6">
+        <f t="shared" si="2"/>
+        <v>30.357142857142858</v>
+      </c>
+      <c r="CI6" s="1">
+        <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44888.691412083332</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3">
         <v>44888</v>
@@ -2354,13 +2479,28 @@
       <c r="CE7" s="1">
         <v>35</v>
       </c>
+      <c r="CF7">
+        <f t="shared" si="0"/>
+        <v>43.3</v>
+      </c>
+      <c r="CG7">
+        <f t="shared" si="1"/>
+        <v>1299</v>
+      </c>
+      <c r="CH7">
+        <f t="shared" si="2"/>
+        <v>65.466666666666669</v>
+      </c>
+      <c r="CI7" s="1">
+        <v>58</v>
+      </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44889.644985277773</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
         <v>44889</v>
@@ -2605,13 +2745,28 @@
       <c r="CE8" s="1">
         <v>80</v>
       </c>
+      <c r="CF8">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="CG8">
+        <f t="shared" si="1"/>
+        <v>1890</v>
+      </c>
+      <c r="CH8">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="CI8" s="1">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44894.656361527777</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>44894</v>
@@ -2856,13 +3011,28 @@
       <c r="CE9" s="1">
         <v>50</v>
       </c>
+      <c r="CF9">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="CG9">
+        <f t="shared" si="1"/>
+        <v>2400</v>
+      </c>
+      <c r="CH9">
+        <f t="shared" si="2"/>
+        <v>78.8</v>
+      </c>
+      <c r="CI9" s="1">
+        <v>80</v>
+      </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44895.648697905097</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
         <v>44895</v>
@@ -3107,13 +3277,28 @@
       <c r="CE10" s="1">
         <v>30</v>
       </c>
+      <c r="CF10">
+        <f t="shared" si="0"/>
+        <v>55.133333333333333</v>
+      </c>
+      <c r="CG10">
+        <f t="shared" si="1"/>
+        <v>1654</v>
+      </c>
+      <c r="CH10">
+        <f t="shared" si="2"/>
+        <v>55.833333333333336</v>
+      </c>
+      <c r="CI10" s="1">
+        <v>39</v>
+      </c>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44896.471375173613</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3">
         <v>44896</v>
@@ -3358,13 +3543,28 @@
       <c r="CE11" s="1">
         <v>60</v>
       </c>
+      <c r="CF11">
+        <f t="shared" si="0"/>
+        <v>80.400000000000006</v>
+      </c>
+      <c r="CG11">
+        <f t="shared" si="1"/>
+        <v>2412</v>
+      </c>
+      <c r="CH11">
+        <f t="shared" si="2"/>
+        <v>85.833333333333329</v>
+      </c>
+      <c r="CI11" s="1">
+        <v>33</v>
+      </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44898.465213159725</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="3">
         <v>44898</v>
@@ -3609,13 +3809,28 @@
       <c r="CE12" s="1">
         <v>70</v>
       </c>
+      <c r="CF12">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="CG12">
+        <f t="shared" si="1"/>
+        <v>1830</v>
+      </c>
+      <c r="CH12">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="CI12" s="1">
+        <v>65</v>
+      </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44907.554067893521</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3">
         <v>44907</v>
@@ -3860,13 +4075,28 @@
       <c r="CE13" s="1">
         <v>15</v>
       </c>
+      <c r="CF13">
+        <f t="shared" si="0"/>
+        <v>50.166666666666664</v>
+      </c>
+      <c r="CG13">
+        <f t="shared" si="1"/>
+        <v>1505</v>
+      </c>
+      <c r="CH13">
+        <f t="shared" si="2"/>
+        <v>51.166666666666664</v>
+      </c>
+      <c r="CI13" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44908.849899733796</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="3">
         <v>44908</v>
@@ -4111,13 +4341,28 @@
       <c r="CE14" s="1">
         <v>7</v>
       </c>
+      <c r="CF14">
+        <f t="shared" si="0"/>
+        <v>48.5</v>
+      </c>
+      <c r="CG14">
+        <f t="shared" si="1"/>
+        <v>1455</v>
+      </c>
+      <c r="CH14">
+        <f t="shared" si="2"/>
+        <v>51.9</v>
+      </c>
+      <c r="CI14" s="1">
+        <v>65</v>
+      </c>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44909.508692164352</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="3">
         <v>44909</v>
@@ -4362,13 +4607,28 @@
       <c r="CE15" s="1">
         <v>10</v>
       </c>
+      <c r="CF15">
+        <f t="shared" si="0"/>
+        <v>39.666666666666664</v>
+      </c>
+      <c r="CG15">
+        <f t="shared" si="1"/>
+        <v>1190</v>
+      </c>
+      <c r="CH15">
+        <f t="shared" si="2"/>
+        <v>51.333333333333336</v>
+      </c>
+      <c r="CI15" s="1">
+        <v>49</v>
+      </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44912.510422430554</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3">
         <v>44912</v>
@@ -4612,6 +4872,35 @@
       </c>
       <c r="CE16" s="1">
         <v>15</v>
+      </c>
+      <c r="CF16">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="CG16">
+        <f t="shared" si="1"/>
+        <v>1680</v>
+      </c>
+      <c r="CH16">
+        <f t="shared" si="2"/>
+        <v>52.666666666666664</v>
+      </c>
+      <c r="CI16" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="84:86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF18">
+        <f>CORREL(CF2:CF16,CI2:CI16)</f>
+        <v>8.2698582653539521E-2</v>
+      </c>
+      <c r="CG18">
+        <f>CORREL(CG2:CG16,CI2:CI16)</f>
+        <v>7.7761961181219169E-2</v>
+      </c>
+      <c r="CH18">
+        <f>CORREL(CH2:CH16,CI2:CI16)</f>
+        <v>4.6858719638961568E-3</v>
       </c>
     </row>
   </sheetData>

--- a/task01.xlsx
+++ b/task01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{EFD450E3-1C99-49F7-8AC0-26C51776A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6272A17C-FD4B-4D7F-8258-6F84ED329487}"/>
+  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{EFD450E3-1C99-49F7-8AC0-26C51776A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DCD6F15-54BB-4A77-8A96-99F3E9B34E16}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1620" windowWidth="13410" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="840" windowWidth="13410" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
   <si>
     <t>被験者</t>
   </si>
@@ -441,6 +441,10 @@
   </si>
   <si>
     <t>pre_sum</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>post_sum</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -744,18 +748,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CJ18"/>
+  <dimension ref="A1:CK18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
-      <selection activeCell="CG19" sqref="CG19"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
+      <selection activeCell="CH19" sqref="CH19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="90" width="18.85546875" customWidth="1"/>
+    <col min="1" max="91" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>101</v>
       </c>
@@ -1015,11 +1019,14 @@
         <v>99</v>
       </c>
       <c r="CI1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CJ1" s="1"/>
+        <v>103</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CK1" s="1"/>
     </row>
-    <row r="2" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44876.674123784724</v>
       </c>
@@ -1161,11 +1168,15 @@
         <f>AVERAGE(E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,AA2,AE2,AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BM2,BO2,BQ2,BS2,BU2,BW2,BY2,CA2,CC2,CE2)</f>
         <v>62.75</v>
       </c>
-      <c r="CI2" s="1">
+      <c r="CI2">
+        <f>SUM(F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,AB2,AF2,AJ2,AN2,AR2,AV2,AZ2,BD2,BH2,BL2,BN2,BP2,BR2,BT2,BV2,BX2,BZ2,CB2,CD2,CF2)</f>
+        <v>1149</v>
+      </c>
+      <c r="CJ2" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44880.707566354162</v>
       </c>
@@ -1427,11 +1438,15 @@
         <f t="shared" ref="CH3:CH16" si="2">AVERAGE(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3,AA3,AE3,AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BM3,BO3,BQ3,BS3,BU3,BW3,BY3,CA3,CC3,CE3)</f>
         <v>41.93333333333333</v>
       </c>
-      <c r="CI3" s="1">
+      <c r="CI3">
+        <f t="shared" ref="CI3:CI16" si="3">SUM(F3,H3,J3,L3,N3,P3,R3,T3,V3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3,BH3,BL3,BN3,BP3,BR3,BT3,BV3,BX3,BZ3,CB3,CD3,CF3)</f>
+        <v>1321.8666666666666</v>
+      </c>
+      <c r="CJ3" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44881.674904236112</v>
       </c>
@@ -1693,11 +1708,15 @@
         <f t="shared" si="2"/>
         <v>52.5</v>
       </c>
-      <c r="CI4" s="1">
+      <c r="CI4">
+        <f t="shared" si="3"/>
+        <v>1589</v>
+      </c>
+      <c r="CJ4" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44883.665308854164</v>
       </c>
@@ -1959,11 +1978,15 @@
         <f>AVERAGE(E5,G5,I5,K5,M5,O5,Q5,S5,U5,W5,AA5,AE5,AI5,AM5,AQ5,AU5,AY5,BC5,BG5,BK5,BM5,BO5,BQ5,BS5,BU5,BW5,BY5,CA5,CC5,CE5)</f>
         <v>65.666666666666671</v>
       </c>
-      <c r="CI5" s="1">
+      <c r="CI5">
+        <f t="shared" si="3"/>
+        <v>1769.6666666666667</v>
+      </c>
+      <c r="CJ5" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44888.58370181713</v>
       </c>
@@ -2225,11 +2248,15 @@
         <f t="shared" si="2"/>
         <v>30.357142857142858</v>
       </c>
-      <c r="CI6" s="1">
+      <c r="CI6">
+        <f t="shared" si="3"/>
+        <v>707.14285714285711</v>
+      </c>
+      <c r="CJ6" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44888.691412083332</v>
       </c>
@@ -2491,11 +2518,15 @@
         <f t="shared" si="2"/>
         <v>65.466666666666669</v>
       </c>
-      <c r="CI7" s="1">
+      <c r="CI7">
+        <f t="shared" si="3"/>
+        <v>1242.3</v>
+      </c>
+      <c r="CJ7" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44889.644985277773</v>
       </c>
@@ -2757,11 +2788,15 @@
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="CI8" s="1">
+      <c r="CI8">
+        <f t="shared" si="3"/>
+        <v>1853</v>
+      </c>
+      <c r="CJ8" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44894.656361527777</v>
       </c>
@@ -3023,11 +3058,15 @@
         <f t="shared" si="2"/>
         <v>78.8</v>
       </c>
-      <c r="CI9" s="1">
+      <c r="CI9">
+        <f t="shared" si="3"/>
+        <v>2380</v>
+      </c>
+      <c r="CJ9" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44895.648697905097</v>
       </c>
@@ -3289,11 +3328,15 @@
         <f t="shared" si="2"/>
         <v>55.833333333333336</v>
       </c>
-      <c r="CI10" s="1">
+      <c r="CI10">
+        <f t="shared" si="3"/>
+        <v>1619.1333333333334</v>
+      </c>
+      <c r="CJ10" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44896.471375173613</v>
       </c>
@@ -3555,11 +3598,15 @@
         <f t="shared" si="2"/>
         <v>85.833333333333329</v>
       </c>
-      <c r="CI11" s="1">
+      <c r="CI11">
+        <f t="shared" si="3"/>
+        <v>2392.4</v>
+      </c>
+      <c r="CJ11" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44898.465213159725</v>
       </c>
@@ -3821,11 +3868,15 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="CI12" s="1">
+      <c r="CI12">
+        <f t="shared" si="3"/>
+        <v>1791</v>
+      </c>
+      <c r="CJ12" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44907.554067893521</v>
       </c>
@@ -4087,11 +4138,15 @@
         <f t="shared" si="2"/>
         <v>51.166666666666664</v>
       </c>
-      <c r="CI13" s="1">
+      <c r="CI13">
+        <f t="shared" si="3"/>
+        <v>1465.1666666666667</v>
+      </c>
+      <c r="CJ13" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44908.849899733796</v>
       </c>
@@ -4353,11 +4408,15 @@
         <f t="shared" si="2"/>
         <v>51.9</v>
       </c>
-      <c r="CI14" s="1">
+      <c r="CI14">
+        <f t="shared" si="3"/>
+        <v>1413.5</v>
+      </c>
+      <c r="CJ14" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44909.508692164352</v>
       </c>
@@ -4619,11 +4678,15 @@
         <f t="shared" si="2"/>
         <v>51.333333333333336</v>
       </c>
-      <c r="CI15" s="1">
+      <c r="CI15">
+        <f t="shared" si="3"/>
+        <v>1169.6666666666667</v>
+      </c>
+      <c r="CJ15" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44912.510422430554</v>
       </c>
@@ -4885,22 +4948,30 @@
         <f t="shared" si="2"/>
         <v>52.666666666666664</v>
       </c>
-      <c r="CI16" s="1">
+      <c r="CI16">
+        <f t="shared" si="3"/>
+        <v>1636</v>
+      </c>
+      <c r="CJ16" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="84:86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="84:87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CF18">
-        <f>CORREL(CF2:CF16,CI2:CI16)</f>
-        <v>8.2698582653539521E-2</v>
+        <f>CORREL(CF3:CF16,CJ3:CJ16)</f>
+        <v>8.2538931098006307E-2</v>
       </c>
       <c r="CG18">
-        <f>CORREL(CG2:CG16,CI2:CI16)</f>
-        <v>7.7761961181219169E-2</v>
+        <f>CORREL(CG3:CG16,CJ3:CJ16)</f>
+        <v>8.215252629506023E-2</v>
       </c>
       <c r="CH18">
-        <f>CORREL(CH2:CH16,CI2:CI16)</f>
-        <v>4.6858719638961568E-3</v>
+        <f>CORREL(CH3:CH16,CJ3:CJ16)</f>
+        <v>4.2521824880356945E-3</v>
+      </c>
+      <c r="CI18">
+        <f>CORREL(CI3:CI16,CJ3:CJ16)</f>
+        <v>7.93723513221231E-2</v>
       </c>
     </row>
   </sheetData>

--- a/task01.xlsx
+++ b/task01.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="201" documentId="13_ncr:1_{EFD450E3-1C99-49F7-8AC0-26C51776A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DCD6F15-54BB-4A77-8A96-99F3E9B34E16}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="13_ncr:1_{EFD450E3-1C99-49F7-8AC0-26C51776A845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4501D823-DE5D-443A-8077-3E3E19853780}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="840" windowWidth="13410" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13905" yWindow="270" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'フォームの回答 1'!$B$1:$B$23</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>被験者</t>
   </si>
@@ -445,6 +448,14 @@
   </si>
   <si>
     <t>post_sum</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -455,7 +466,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -497,6 +508,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -518,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -526,6 +544,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -745,13 +764,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CK18"/>
+  <dimension ref="A1:CK23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="CH19" sqref="CH19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3336,7 +3355,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:89" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:89" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44896.471375173613</v>
       </c>
@@ -4974,7 +4993,91 @@
         <v>7.93723513221231E-2</v>
       </c>
     </row>
+    <row r="20" spans="84:87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF20" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="84:87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF21">
+        <f>CF18*SQRT(12)/SQRT(1-CF18^2)</f>
+        <v>0.28690220045025638</v>
+      </c>
+      <c r="CG21">
+        <f>CG18*SQRT(12)/SQRT(1-CG18^2)</f>
+        <v>0.28554992395172613</v>
+      </c>
+      <c r="CH21">
+        <f>CH18*SQRT(12)/SQRT(1-CH18^2)</f>
+        <v>1.4730125393377296E-2</v>
+      </c>
+      <c r="CI21">
+        <f>CI18*SQRT(12)/SQRT(1-CI18^2)</f>
+        <v>0.27582410497377119</v>
+      </c>
+    </row>
+    <row r="22" spans="84:87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="CG22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="CH22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="CI22" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="84:87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF23">
+        <f>TDIST(ABS(CF21),12,2)</f>
+        <v>0.77908088316132384</v>
+      </c>
+      <c r="CG23">
+        <f>TDIST(ABS(CG21),12,2)</f>
+        <v>0.78009190665975636</v>
+      </c>
+      <c r="CH23">
+        <f>TDIST(ABS(CH21),12,2)</f>
+        <v>0.9884895559954141</v>
+      </c>
+      <c r="CI23">
+        <f>TDIST(ABS(CI21),12,2)</f>
+        <v>0.78737564083354261</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B1:B23" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="imahashi"/>
+        <filter val="kawamura"/>
+        <filter val="kawasaki"/>
+        <filter val="kobayashi"/>
+        <filter val="maeda"/>
+        <filter val="nomura"/>
+        <filter val="ota"/>
+        <filter val="shigenawa"/>
+        <filter val="suzuki"/>
+        <filter val="tabata"/>
+        <filter val="tamaru"/>
+        <filter val="tamura"/>
+        <filter val="watanabe"/>
+        <filter val="yashiro"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
